--- a/data/load_electrolysis.xlsx
+++ b/data/load_electrolysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Desktop/DWE/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D1A097-CFD8-274B-AD8A-EA02A5957BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE13662B-F683-5D4B-9298-27BB3B89AEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3648FADD-87EE-7846-B5E1-B942BBD02B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -382,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,90 +391,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CCA2FF-8C92-B448-ABBB-F6998E876C99}">
-  <dimension ref="A1:A8761"/>
+  <dimension ref="A1:E8761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8723" workbookViewId="0">
-      <selection activeCell="G8738" sqref="G8738"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3735,317 +3739,317 @@
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
@@ -7380,317 +7384,317 @@
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.2">
@@ -11025,317 +11029,317 @@
     </row>
     <row r="2126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2189" spans="1:1" x14ac:dyDescent="0.2">
@@ -14670,317 +14674,317 @@
     </row>
     <row r="2855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2895" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2899" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2900" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2901" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2902" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2905" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2906" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2907" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2913" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2914" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2915" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2916" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2917" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2918" spans="1:1" x14ac:dyDescent="0.2">
@@ -18315,317 +18319,317 @@
     </row>
     <row r="3584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3647" spans="1:1" x14ac:dyDescent="0.2">
@@ -21960,317 +21964,317 @@
     </row>
     <row r="4313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4376" spans="1:1" x14ac:dyDescent="0.2">
@@ -25605,317 +25609,317 @@
     </row>
     <row r="5042" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5043" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5044" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5045" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5046" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5046">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5047" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5047">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5048" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5049" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5050" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5051" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5052" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5053" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5054" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5054">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5055" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5055">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5056" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5057" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5058" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5059" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5060" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5060">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5061" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5062" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5063" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5064" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5065" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5066" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5067" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5068" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5069" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5070" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5071" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5072" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5073" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5074" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5075" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5076" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5077" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5078" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5079" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5080" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5081" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5082" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5083" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5083">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5084" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5085" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5086" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5087" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5088" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5089" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5090" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5091" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5092" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5093" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5094" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5095" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5096" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5097" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5098" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5099" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5105" spans="1:1" x14ac:dyDescent="0.2">
@@ -29250,317 +29254,317 @@
     </row>
     <row r="5771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5834" spans="1:1" x14ac:dyDescent="0.2">
@@ -32895,317 +32899,317 @@
     </row>
     <row r="6500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6563" spans="1:1" x14ac:dyDescent="0.2">
@@ -36540,317 +36544,317 @@
     </row>
     <row r="7229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7292" spans="1:1" x14ac:dyDescent="0.2">
@@ -40185,317 +40189,317 @@
     </row>
     <row r="7958" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7959" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7960" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7961" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7962" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7963" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7964" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7965" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7965">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7966" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7967" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7967">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7968" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7969" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7969">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7970" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7971" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7972" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7973" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7974" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7974">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7975" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7975">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7976" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7977" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7978" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7979" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7980" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7980">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7981" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7982" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7983" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7984" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7985" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7986" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7986">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7987" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7988" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7989" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7990" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7991" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7992" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7993" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7993">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7994" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7995" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7996" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7997" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7998" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7999" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7999">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8000" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8000">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8001">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8002" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8003" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8004" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8004">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8005" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8006" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8007" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8007">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8008" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8008">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8009" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8009">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8010" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8010">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8011" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8011">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8012" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8012">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8013" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8013">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8014" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8014">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8015" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8015">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8016" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8016">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8017" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8017">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8018" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8018">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8019" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8019">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8020" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8020">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8021" spans="1:1" x14ac:dyDescent="0.2">
@@ -43725,107 +43729,107 @@
     </row>
     <row r="8666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8687" spans="1:1" x14ac:dyDescent="0.2">
@@ -44145,62 +44149,62 @@
     </row>
     <row r="8750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
